--- a/biology/Botanique/Carex_halleriana/Carex_halleriana.xlsx
+++ b/biology/Botanique/Carex_halleriana/Carex_halleriana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carex halleriana, de nom commun Laîche de Haller, est une plante vivace du genre Carex et de la famille des Cyperaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>nom générique : nom latin déjà employé du temps de Virgile (70-19 av. J.C.). Un carectum étant en ce temps-là une cariçaie. Certains auteurs évoquent le verbe grec ancien κείρω (cairô), couper de près, sous prétexte que les Carex ont souvent des feuilles coupantes.
-nom spécifique : plante dédiée par Ignacio Jordán de Asso y del Rio (1742-1814) au médecin-botaniste-poète-magistrat suisse Albrecht von Haller (1708-1777)[1].</t>
+nom spécifique : plante dédiée par Ignacio Jordán de Asso y del Rio (1742-1814) au médecin-botaniste-poète-magistrat suisse Albrecht von Haller (1708-1777).</t>
         </is>
       </c>
     </row>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-La laîche de Haller mesure de 10 à 40 cm de hauteur, à souche cespiteuse courte, la tige florifère égalant ou dépassant les feuilles. Les feuilles sont étroites (2 à 3 mm de largeur), canaliculées, rudes et à gaine glabre. 
-Appareil reproducteur
-L'inflorescence est constituée d'un seul épi mâle et de plusieurs épis femelles ; les bractées d'inflorescence sont légèrement engainantes, à pointe effilée ; l'épi mâle est à l'extrémité de la tige, fusiforme, à écailles brun clair et obtuses. Il y a deux types d'épis femelles : 2 à 6 épis subsessiles de 5 à 6 fleurs, rapprochés de l'épi mâle, à l'aisselle d'une bractée ne dépassant pas l'inflorescence, et 1 à 3 épis insérés vers le bas de la tige, solitaires, sur de longs pédicelles filiformes retombants. Les écailles des fleurs femelles sont ovales, aiguës-scarieuses et rougeâtres ; il y a trois stigmates utricules ovoïdes, trigones, à bec conique court, fortement nervées, légèrement pubescentes, dépassant un peu l'écaille. La floraison a lieu de mars à juin[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La laîche de Haller mesure de 10 à 40 cm de hauteur, à souche cespiteuse courte, la tige florifère égalant ou dépassant les feuilles. Les feuilles sont étroites (2 à 3 mm de largeur), canaliculées, rudes et à gaine glabre. 
 </t>
         </is>
       </c>
@@ -573,12 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce carex pousse dans les lieux arides, pelouses sèches et bois clairs, sur sol calcaire[1], jusqu'à une altitude de 2275 mètres[3].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est constituée d'un seul épi mâle et de plusieurs épis femelles ; les bractées d'inflorescence sont légèrement engainantes, à pointe effilée ; l'épi mâle est à l'extrémité de la tige, fusiforme, à écailles brun clair et obtuses. Il y a deux types d'épis femelles : 2 à 6 épis subsessiles de 5 à 6 fleurs, rapprochés de l'épi mâle, à l'aisselle d'une bractée ne dépassant pas l'inflorescence, et 1 à 3 épis insérés vers le bas de la tige, solitaires, sur de longs pédicelles filiformes retombants. Les écailles des fleurs femelles sont ovales, aiguës-scarieuses et rougeâtres ; il y a trois stigmates utricules ovoïdes, trigones, à bec conique court, fortement nervées, légèrement pubescentes, dépassant un peu l'écaille. La floraison a lieu de mars à juin.
 </t>
         </is>
       </c>
@@ -604,12 +627,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante subméditerranéenne, présente en Europe méridionale et centrale, depuis le Portugal jusqu'à la Turquie et au Caucase, au nord jusqu'en France, au sud de l'Allemagne, en Hongrie ; aussi en Asie mineure, au Maghreb, et, curieusement, dans les régions semi-arides d'Amérique du nord (Texas, Nouveau-Mexique, Mexique)[2].
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce carex pousse dans les lieux arides, pelouses sèches et bois clairs, sur sol calcaire, jusqu'à une altitude de 2275 mètres.
 </t>
         </is>
       </c>
@@ -635,10 +660,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante subméditerranéenne, présente en Europe méridionale et centrale, depuis le Portugal jusqu'à la Turquie et au Caucase, au nord jusqu'en France, au sud de l'Allemagne, en Hongrie ; aussi en Asie mineure, au Maghreb, et, curieusement, dans les régions semi-arides d'Amérique du nord (Texas, Nouveau-Mexique, Mexique).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carex_halleriana</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carex_halleriana</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Carex allorgei Sennen, 1931
 Carex alpestris All., 1785
@@ -650,7 +710,7 @@
 Carex ptychocarpa Link, 1799
 Carex rhizantha J.F.Gmel., 1791
 Carex tenuifolia Poir., 1789
-Olotrema gynobasis (Vill.) Raf., 1840[4]</t>
+Olotrema gynobasis (Vill.) Raf., 1840</t>
         </is>
       </c>
     </row>
